--- a/Import Scripts/voltageClamp/channelModelManager.xlsx
+++ b/Import Scripts/voltageClamp/channelModelManager.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29520" windowHeight="20000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="bad timestep chans" sheetId="5" r:id="rId4"/>
+    <sheet name="problemChannels" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">problemChannels!$A$1:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$F$141</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="730">
   <si>
     <t>/www/NeuroMLmodels/NMLCH000001/hd.nml</t>
   </si>
@@ -2129,6 +2131,93 @@
   </si>
   <si>
     <t>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000126/; find . -name "LEMS*" -exec jnml {} -nogui \;</t>
+  </si>
+  <si>
+    <t>NMLCH000025/NaP_Chan.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000026/NaF_Chan.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000028/KMnew2_Chan.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000029/Kh2_Chan.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000030/Kh1_Chan.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000031/Kdr_Chan.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000032/Kc_Chan.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000033/KA_Chan.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000034/K2_Chan.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000035/CaT_Chan.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000036/CaPool.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000037/CaP_Chan.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000051/cad.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000133/IT.channel.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000152/kc_fast.channel.nml</t>
+  </si>
+  <si>
+    <t>NMLCH000153/kc.channel.nml</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>DeShutter&amp;Bower channels that were in NMLv1.8 format. PG's NMLv1.8-&gt;NML2 converter does not support the format used in the NMLv1.8 files. Conversion results in .nml files that say "Not implemented yet"</t>
+  </si>
+  <si>
+    <t>Can't convert from NMLv1.8 to v2</t>
+  </si>
+  <si>
+    <t>Does not validate, but seems to run OK</t>
+  </si>
+  <si>
+    <t>Traub TMC model. Tag "baseConductanceScalingCaDependent" used in channel does not appear to be part of NML2</t>
+  </si>
+  <si>
+    <t>Covered by existing issue from 1yr ago: https://github.com/OpenSourceBrain/Thalamocortical/issues/7</t>
+  </si>
+  <si>
+    <t>Does not validate, shows I&amp;G =0</t>
+  </si>
+  <si>
+    <t>Ca pool model</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Example of NMLv1.8 version file that the converter does not support: https://github.com/scrook/neuroml-db/blob/e4f088fdcd3ddeb7b99fbeeff70cc5e40681e3b1/www/NeuroMLmodels/NMLCH000025/NaP_Chan.xml</t>
+  </si>
+  <si>
+    <t>Created an issue: https://github.com/OpenSourceBrain/PurkinjeCell/issues/2</t>
+  </si>
+  <si>
+    <t>Pospischil model. Validator complains about 'IT_s_gate' type that is defined later in the channel. Have to investigate why it works OK as part of a cell, but not in our test protocol.</t>
   </si>
 </sst>
 </file>
@@ -2176,7 +2265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2184,8 +2273,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="297">
+  <cellStyleXfs count="435">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2483,8 +2689,146 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2494,8 +2838,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="297">
+  <cellStyles count="435">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2644,6 +3062,75 @@
     <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2792,6 +3279,75 @@
     <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3121,10 +3677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I139"/>
+    <sheetView topLeftCell="I42" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3134,11 +3690,12 @@
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
-    <col min="7" max="7" width="129.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="139" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="116.83203125" customWidth="1"/>
+    <col min="9" max="9" width="129.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="139" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -3151,20 +3708,23 @@
       <c r="F1" t="s">
         <v>692</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>692</v>
+      </c>
+      <c r="I1" t="s">
         <v>148</v>
       </c>
-      <c r="H1" t="s">
-        <v>692</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K1" t="s">
         <v>149</v>
       </c>
-      <c r="J1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -3185,21 +3745,28 @@
         <v>692</v>
       </c>
       <c r="G2" t="str">
+        <f>"jnml -validate "&amp;A2&amp;B2&amp;C2</f>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000001/hd.nml</v>
+      </c>
+      <c r="H2" t="s">
+        <v>692</v>
+      </c>
+      <c r="I2" t="str">
         <f>IF(D2&lt;&gt;"","cd "&amp;A2&amp;B2&amp;"; find . -name ""LEMS*"" -exec jnml {} -nogui \;","")</f>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000001/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H2" t="s">
-        <v>692</v>
-      </c>
-      <c r="I2" s="2" t="str">
+      <c r="J2" t="s">
+        <v>692</v>
+      </c>
+      <c r="K2" s="2" t="str">
         <f>IF(D2&lt;&gt;"","find "&amp;A2&amp;B2&amp;" -name ""fileOut*"" -exec python createChartJS.py ""{}"" \;","")</f>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000001/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -3220,21 +3787,28 @@
         <v>692</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="1">IF(D3&lt;&gt;"","cd "&amp;A3&amp;B3&amp;"; find . -name ""LEMS*"" -exec jnml {} -nogui \;","")</f>
+        <f t="shared" ref="G3:G66" si="1">"jnml -validate "&amp;A3&amp;B3&amp;C3</f>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000002/kad.nml</v>
+      </c>
+      <c r="H3" t="s">
+        <v>692</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="2">IF(D3&lt;&gt;"","cd "&amp;A3&amp;B3&amp;"; find . -name ""LEMS*"" -exec jnml {} -nogui \;","")</f>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000002/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H3" t="s">
-        <v>692</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I66" si="2">IF(D3&lt;&gt;"","find "&amp;A3&amp;B3&amp;" -name ""fileOut*"" -exec python createChartJS.py ""{}"" \;","")</f>
+      <c r="J3" t="s">
+        <v>692</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:K66" si="3">IF(D3&lt;&gt;"","find "&amp;A3&amp;B3&amp;" -name ""fileOut*"" -exec python createChartJS.py ""{}"" \;","")</f>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000002/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -3256,20 +3830,27 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000003/kap.nml</v>
+      </c>
+      <c r="H4" t="s">
+        <v>692</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000003/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H4" t="s">
-        <v>692</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J4" t="s">
+        <v>692</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000003/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -3291,20 +3872,27 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000004/kdr.nml</v>
+      </c>
+      <c r="H5" t="s">
+        <v>692</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000004/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H5" t="s">
-        <v>692</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J5" t="s">
+        <v>692</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000004/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J5" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -3326,20 +3914,27 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000005/na3.nml</v>
+      </c>
+      <c r="H6" t="s">
+        <v>692</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000005/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H6" t="s">
-        <v>692</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J6" t="s">
+        <v>692</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000005/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J6" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -3361,20 +3956,27 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000006/nax.nml</v>
+      </c>
+      <c r="H7" t="s">
+        <v>692</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000006/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H7" t="s">
-        <v>692</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J7" t="s">
+        <v>692</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000006/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J7" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -3393,20 +3995,27 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000007/pas.nml</v>
       </c>
       <c r="H8" t="s">
         <v>692</v>
       </c>
-      <c r="I8" s="2" t="str">
+      <c r="I8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J8" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -3428,20 +4037,27 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000008/Gran_NaF_98.nml</v>
+      </c>
+      <c r="H9" t="s">
+        <v>692</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000008/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H9" t="s">
-        <v>692</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J9" t="s">
+        <v>692</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000008/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J9" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="L9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -3463,20 +4079,27 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000009/Gran_KDr_98.nml</v>
+      </c>
+      <c r="H10" t="s">
+        <v>692</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000009/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H10" t="s">
-        <v>692</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J10" t="s">
+        <v>692</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000009/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J10" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="L10" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -3498,20 +4121,27 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000010/Gran_KCa_98.nml</v>
+      </c>
+      <c r="H11" t="s">
+        <v>692</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000010/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H11" t="s">
-        <v>692</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J11" t="s">
+        <v>692</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000010/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J11" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="L11" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -3533,20 +4163,27 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000011/Gran_KA_98.nml</v>
+      </c>
+      <c r="H12" t="s">
+        <v>692</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000011/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H12" t="s">
-        <v>692</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J12" t="s">
+        <v>692</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000011/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J12" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="L12" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -3568,20 +4205,27 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000012/Gran_H_98.nml</v>
+      </c>
+      <c r="H13" t="s">
+        <v>692</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000012/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H13" t="s">
-        <v>692</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J13" t="s">
+        <v>692</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000012/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J13" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="L13" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -3600,20 +4244,27 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000013/Gran_CaPool_98.nml</v>
       </c>
       <c r="H14" t="s">
         <v>692</v>
       </c>
-      <c r="I14" s="2" t="str">
+      <c r="I14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J14" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L14" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -3635,20 +4286,27 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000014/Gran_CaHVA_98.nml</v>
+      </c>
+      <c r="H15" t="s">
+        <v>692</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000014/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H15" t="s">
-        <v>692</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J15" t="s">
+        <v>692</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000014/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J15" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -3667,20 +4325,27 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000015/GranPassiveCond.nml</v>
       </c>
       <c r="H16" t="s">
         <v>692</v>
       </c>
-      <c r="I16" s="2" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J16" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L16" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -3699,20 +4364,27 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000016/MFFastLeakCond.nml</v>
       </c>
       <c r="H17" t="s">
         <v>692</v>
       </c>
-      <c r="I17" s="2" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J17" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -3734,20 +4406,27 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000017/Golgi_CaHVA_CML.nml</v>
+      </c>
+      <c r="H18" t="s">
+        <v>692</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000017/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H18" t="s">
-        <v>692</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J18" t="s">
+        <v>692</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000017/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J18" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -3766,20 +4445,27 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000018/Golgi_CaPool_CML.nml</v>
       </c>
       <c r="H19" t="s">
         <v>692</v>
       </c>
-      <c r="I19" s="2" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J19" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L19" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -3801,20 +4487,27 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000019/Golgi_H_CML.nml</v>
+      </c>
+      <c r="H20" t="s">
+        <v>692</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000019/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H20" t="s">
-        <v>692</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J20" t="s">
+        <v>692</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000019/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J20" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -3836,20 +4529,27 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000020/Golgi_KA_CML.nml</v>
+      </c>
+      <c r="H21" t="s">
+        <v>692</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000020/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H21" t="s">
-        <v>692</v>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J21" t="s">
+        <v>692</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000020/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J21" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -3871,20 +4571,27 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000021/Golgi_KCa_CML.nml</v>
+      </c>
+      <c r="H22" t="s">
+        <v>692</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000021/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H22" t="s">
-        <v>692</v>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J22" t="s">
+        <v>692</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000021/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J22" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="L22" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -3906,20 +4613,27 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000022/Golgi_KDr_CML.nml</v>
+      </c>
+      <c r="H23" t="s">
+        <v>692</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000022/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H23" t="s">
-        <v>692</v>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J23" t="s">
+        <v>692</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000022/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J23" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="L23" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -3941,20 +4655,27 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000023/Golgi_NaF_CML.nml</v>
+      </c>
+      <c r="H24" t="s">
+        <v>692</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000023/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H24" t="s">
-        <v>692</v>
-      </c>
-      <c r="I24" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J24" t="s">
+        <v>692</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000023/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J24" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="L24" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>144</v>
       </c>
@@ -3973,20 +4694,27 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000024/GolgiPassiveCond.nml</v>
       </c>
       <c r="H25" t="s">
         <v>692</v>
       </c>
-      <c r="I25" s="2" t="str">
+      <c r="I25" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J25" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L25" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -4008,20 +4736,27 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000025/NaP_Chan.nml</v>
+      </c>
+      <c r="H26" t="s">
+        <v>692</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000025/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H26" t="s">
-        <v>692</v>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J26" t="s">
+        <v>692</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000025/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J26" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="L26" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>144</v>
       </c>
@@ -4043,20 +4778,27 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000026/NaF_Chan.nml</v>
+      </c>
+      <c r="H27" t="s">
+        <v>692</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000026/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H27" t="s">
-        <v>692</v>
-      </c>
-      <c r="I27" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J27" t="s">
+        <v>692</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000026/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J27" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="L27" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -4075,20 +4817,27 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000027/LeakConductance.nml</v>
       </c>
       <c r="H28" t="s">
         <v>692</v>
       </c>
-      <c r="I28" s="2" t="str">
+      <c r="I28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J28" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L28" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>144</v>
       </c>
@@ -4110,20 +4859,27 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000028/KMnew2_Chan.nml</v>
+      </c>
+      <c r="H29" t="s">
+        <v>692</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000028/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H29" t="s">
-        <v>692</v>
-      </c>
-      <c r="I29" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J29" t="s">
+        <v>692</v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000028/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J29" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="L29" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -4145,20 +4901,27 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000029/Kh2_Chan.nml</v>
+      </c>
+      <c r="H30" t="s">
+        <v>692</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000029/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H30" t="s">
-        <v>692</v>
-      </c>
-      <c r="I30" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J30" t="s">
+        <v>692</v>
+      </c>
+      <c r="K30" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000029/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J30" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="L30" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4180,20 +4943,27 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000030/Kh1_Chan.nml</v>
+      </c>
+      <c r="H31" t="s">
+        <v>692</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000030/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H31" t="s">
-        <v>692</v>
-      </c>
-      <c r="I31" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J31" t="s">
+        <v>692</v>
+      </c>
+      <c r="K31" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000030/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J31" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="L31" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -4215,20 +4985,27 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000031/Kdr_Chan.nml</v>
+      </c>
+      <c r="H32" t="s">
+        <v>692</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000031/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H32" t="s">
-        <v>692</v>
-      </c>
-      <c r="I32" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J32" t="s">
+        <v>692</v>
+      </c>
+      <c r="K32" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000031/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J32" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="L32" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -4250,20 +5027,27 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000032/Kc_Chan.nml</v>
+      </c>
+      <c r="H33" t="s">
+        <v>692</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000032/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H33" t="s">
-        <v>692</v>
-      </c>
-      <c r="I33" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J33" t="s">
+        <v>692</v>
+      </c>
+      <c r="K33" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000032/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J33" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="L33" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -4277,7 +5061,7 @@
         <v>68</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34:E65" si="3">IF(D34&lt;&gt;"","python createLEMS.py "&amp;A34&amp;B34&amp;C34&amp;" "&amp;D34,"")</f>
+        <f t="shared" ref="E34:E65" si="4">IF(D34&lt;&gt;"","python createLEMS.py "&amp;A34&amp;B34&amp;C34&amp;" "&amp;D34,"")</f>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000033/KA_Chan.nml Kv</v>
       </c>
       <c r="F34" t="s">
@@ -4285,20 +5069,27 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000033/KA_Chan.nml</v>
+      </c>
+      <c r="H34" t="s">
+        <v>692</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000033/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H34" t="s">
-        <v>692</v>
-      </c>
-      <c r="I34" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J34" t="s">
+        <v>692</v>
+      </c>
+      <c r="K34" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000033/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J34" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="L34" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -4312,7 +5103,7 @@
         <v>70</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000034/K2_Chan.nml Kca</v>
       </c>
       <c r="F35" t="s">
@@ -4320,20 +5111,27 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000034/K2_Chan.nml</v>
+      </c>
+      <c r="H35" t="s">
+        <v>692</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000034/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H35" t="s">
-        <v>692</v>
-      </c>
-      <c r="I35" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J35" t="s">
+        <v>692</v>
+      </c>
+      <c r="K35" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000034/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J35" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="L35" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -4347,7 +5145,7 @@
         <v>71</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000035/CaT_Chan.nml Cav</v>
       </c>
       <c r="F36" t="s">
@@ -4355,20 +5153,27 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000035/CaT_Chan.nml</v>
+      </c>
+      <c r="H36" t="s">
+        <v>692</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000035/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H36" t="s">
-        <v>692</v>
-      </c>
-      <c r="I36" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J36" t="s">
+        <v>692</v>
+      </c>
+      <c r="K36" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000035/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J36" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="L36" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -4379,926 +5184,1115 @@
         <v>221</v>
       </c>
       <c r="E37" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F37" t="s">
+        <v>692</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000036/CaPool.nml</v>
+      </c>
+      <c r="H37" t="s">
+        <v>692</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J37" t="s">
+        <v>692</v>
+      </c>
+      <c r="K37" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F37" t="s">
-        <v>692</v>
-      </c>
-      <c r="G37" t="str">
+      <c r="L37" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000037/CaP_Chan.nml Cav</v>
+      </c>
+      <c r="F38" t="s">
+        <v>692</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000037/CaP_Chan.nml</v>
+      </c>
+      <c r="H38" t="s">
+        <v>692</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000037/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J38" t="s">
+        <v>692</v>
+      </c>
+      <c r="K38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000037/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L38" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000048/ar.nml Kv</v>
+      </c>
+      <c r="F39" t="s">
+        <v>692</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000048/ar.nml</v>
+      </c>
+      <c r="H39" t="s">
+        <v>692</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000048/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J39" t="s">
+        <v>692</v>
+      </c>
+      <c r="K39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000048/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L39" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000049/km.nml Kv</v>
+      </c>
+      <c r="F40" t="s">
+        <v>692</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000049/km.nml</v>
+      </c>
+      <c r="H40" t="s">
+        <v>692</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000049/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J40" t="s">
+        <v>692</v>
+      </c>
+      <c r="K40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000049/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L40" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000050/nap.nml Na</v>
+      </c>
+      <c r="F41" t="s">
+        <v>692</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000050/nap.nml</v>
+      </c>
+      <c r="H41" t="s">
+        <v>692</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000050/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J41" t="s">
+        <v>692</v>
+      </c>
+      <c r="K41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000050/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L41" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H37" t="s">
-        <v>692</v>
-      </c>
-      <c r="I37" s="2" t="str">
+      <c r="F42" t="s">
+        <v>692</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000051/cad.nml</v>
+      </c>
+      <c r="H42" t="s">
+        <v>692</v>
+      </c>
+      <c r="I42" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J37" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C38" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000037/CaP_Chan.nml Cav</v>
-      </c>
-      <c r="F38" t="s">
-        <v>692</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000037/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H38" t="s">
-        <v>692</v>
-      </c>
-      <c r="I38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000037/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J38" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000048/ar.nml Kv</v>
-      </c>
-      <c r="F39" t="s">
-        <v>692</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000048/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H39" t="s">
-        <v>692</v>
-      </c>
-      <c r="I39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000048/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J39" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C40" t="s">
-        <v>227</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000049/km.nml Kv</v>
-      </c>
-      <c r="F40" t="s">
-        <v>692</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000049/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H40" t="s">
-        <v>692</v>
-      </c>
-      <c r="I40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000049/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J40" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C41" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000050/nap.nml Na</v>
-      </c>
-      <c r="F41" t="s">
-        <v>692</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000050/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H41" t="s">
-        <v>692</v>
-      </c>
-      <c r="I41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000050/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J41" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C42" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" t="str">
+      <c r="J42" t="s">
+        <v>692</v>
+      </c>
+      <c r="K42" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F42" t="s">
-        <v>692</v>
-      </c>
-      <c r="G42" t="str">
+      <c r="L42" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000052/kahp.nml Kv</v>
+      </c>
+      <c r="F43" t="s">
+        <v>692</v>
+      </c>
+      <c r="G43" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000052/kahp.nml</v>
+      </c>
+      <c r="H43" t="s">
+        <v>692</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000052/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J43" t="s">
+        <v>692</v>
+      </c>
+      <c r="K43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000052/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L43" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000053/cal.nml Cav</v>
+      </c>
+      <c r="F44" t="s">
+        <v>692</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000053/cal.nml</v>
+      </c>
+      <c r="H44" t="s">
+        <v>692</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000053/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J44" t="s">
+        <v>692</v>
+      </c>
+      <c r="K44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000053/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L44" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000055/kdr_fs.nml Kv</v>
+      </c>
+      <c r="F45" t="s">
+        <v>692</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000055/kdr_fs.nml</v>
+      </c>
+      <c r="H45" t="s">
+        <v>692</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000055/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J45" t="s">
+        <v>692</v>
+      </c>
+      <c r="K45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000055/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L45" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000056/kahp_slower.nml Kv</v>
+      </c>
+      <c r="F46" t="s">
+        <v>692</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000056/kahp_slower.nml</v>
+      </c>
+      <c r="H46" t="s">
+        <v>692</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000056/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J46" t="s">
+        <v>692</v>
+      </c>
+      <c r="K46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000056/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L46" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000057/kc_fast.nml Kv</v>
+      </c>
+      <c r="F47" t="s">
+        <v>692</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000057/kc_fast.nml</v>
+      </c>
+      <c r="H47" t="s">
+        <v>692</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000057/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J47" t="s">
+        <v>692</v>
+      </c>
+      <c r="K47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000057/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L47" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000058/naf2.nml Na</v>
+      </c>
+      <c r="F48" t="s">
+        <v>692</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000058/naf2.nml</v>
+      </c>
+      <c r="H48" t="s">
+        <v>692</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000058/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J48" t="s">
+        <v>692</v>
+      </c>
+      <c r="K48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000058/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L48" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000059/k2.nml Kv</v>
+      </c>
+      <c r="F49" t="s">
+        <v>692</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000059/k2.nml</v>
+      </c>
+      <c r="H49" t="s">
+        <v>692</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000059/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J49" t="s">
+        <v>692</v>
+      </c>
+      <c r="K49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000059/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L49" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000066/CaHVA_CML.nml Cav</v>
+      </c>
+      <c r="F50" t="s">
+        <v>692</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000066/CaHVA_CML.nml</v>
+      </c>
+      <c r="H50" t="s">
+        <v>692</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000066/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J50" t="s">
+        <v>692</v>
+      </c>
+      <c r="K50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000066/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L50" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000067/CaLVA_CML.nml Cav</v>
+      </c>
+      <c r="F51" t="s">
+        <v>692</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000067/CaLVA_CML.nml</v>
+      </c>
+      <c r="H51" t="s">
+        <v>692</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000067/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J51" t="s">
+        <v>692</v>
+      </c>
+      <c r="K51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000067/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L51" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" t="s">
+        <v>251</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H42" t="s">
-        <v>692</v>
-      </c>
-      <c r="I42" s="2" t="str">
+      <c r="F52" t="s">
+        <v>692</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000068/Golgi_CALC_CML.nml</v>
+      </c>
+      <c r="H52" t="s">
+        <v>692</v>
+      </c>
+      <c r="I52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J42" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" t="s">
-        <v>233</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000052/kahp.nml Kv</v>
-      </c>
-      <c r="F43" t="s">
-        <v>692</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000052/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H43" t="s">
-        <v>692</v>
-      </c>
-      <c r="I43" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000052/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J43" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C44" t="s">
-        <v>235</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000053/cal.nml Cav</v>
-      </c>
-      <c r="F44" t="s">
-        <v>692</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000053/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H44" t="s">
-        <v>692</v>
-      </c>
-      <c r="I44" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000053/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J44" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" t="s">
-        <v>237</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000055/kdr_fs.nml Kv</v>
-      </c>
-      <c r="F45" t="s">
-        <v>692</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000055/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H45" t="s">
-        <v>692</v>
-      </c>
-      <c r="I45" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000055/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J45" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C46" t="s">
-        <v>239</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000056/kahp_slower.nml Kv</v>
-      </c>
-      <c r="F46" t="s">
-        <v>692</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000056/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H46" t="s">
-        <v>692</v>
-      </c>
-      <c r="I46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000056/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J46" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C47" t="s">
-        <v>241</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000057/kc_fast.nml Kv</v>
-      </c>
-      <c r="F47" t="s">
-        <v>692</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000057/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H47" t="s">
-        <v>692</v>
-      </c>
-      <c r="I47" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000057/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J47" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000058/naf2.nml Na</v>
-      </c>
-      <c r="F48" t="s">
-        <v>692</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000058/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H48" t="s">
-        <v>692</v>
-      </c>
-      <c r="I48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000058/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J48" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C49" t="s">
-        <v>245</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000059/k2.nml Kv</v>
-      </c>
-      <c r="F49" t="s">
-        <v>692</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000059/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H49" t="s">
-        <v>692</v>
-      </c>
-      <c r="I49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000059/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J49" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C50" t="s">
-        <v>247</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000066/CaHVA_CML.nml Cav</v>
-      </c>
-      <c r="F50" t="s">
-        <v>692</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000066/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H50" t="s">
-        <v>692</v>
-      </c>
-      <c r="I50" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000066/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J50" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C51" t="s">
-        <v>249</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000067/CaLVA_CML.nml Cav</v>
-      </c>
-      <c r="F51" t="s">
-        <v>692</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000067/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H51" t="s">
-        <v>692</v>
-      </c>
-      <c r="I51" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000067/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J51" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C52" t="s">
-        <v>251</v>
-      </c>
-      <c r="E52" t="str">
+      <c r="J52" t="s">
+        <v>692</v>
+      </c>
+      <c r="K52" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F52" t="s">
-        <v>692</v>
-      </c>
-      <c r="G52" t="str">
+      <c r="L52" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F53" t="s">
+        <v>692</v>
+      </c>
+      <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H52" t="s">
-        <v>692</v>
-      </c>
-      <c r="I52" s="2" t="str">
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000069/Golgi_CALC_ca2_CML.nml</v>
+      </c>
+      <c r="H53" t="s">
+        <v>692</v>
+      </c>
+      <c r="I53" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J52" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C53" t="s">
-        <v>253</v>
-      </c>
-      <c r="E53" t="str">
+      <c r="J53" t="s">
+        <v>692</v>
+      </c>
+      <c r="K53" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F53" t="s">
-        <v>692</v>
-      </c>
-      <c r="G53" t="str">
+      <c r="L53" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000086/hcn1f_CML.nml Ih</v>
+      </c>
+      <c r="F54" t="s">
+        <v>692</v>
+      </c>
+      <c r="G54" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000086/hcn1f_CML.nml</v>
+      </c>
+      <c r="H54" t="s">
+        <v>692</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000086/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J54" t="s">
+        <v>692</v>
+      </c>
+      <c r="K54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000086/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L54" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C55" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000087/hcn1s_CML.nml Ih</v>
+      </c>
+      <c r="F55" t="s">
+        <v>692</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000087/hcn1s_CML.nml</v>
+      </c>
+      <c r="H55" t="s">
+        <v>692</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000087/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J55" t="s">
+        <v>692</v>
+      </c>
+      <c r="K55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000087/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L55" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000088/hcn2f_CML.nml Ih</v>
+      </c>
+      <c r="F56" t="s">
+        <v>692</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000088/hcn2f_CML.nml</v>
+      </c>
+      <c r="H56" t="s">
+        <v>692</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000088/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J56" t="s">
+        <v>692</v>
+      </c>
+      <c r="K56" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000088/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L56" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C57" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000089/hcn2s_CML.nml Ih</v>
+      </c>
+      <c r="F57" t="s">
+        <v>692</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000089/hcn2s_CML.nml</v>
+      </c>
+      <c r="H57" t="s">
+        <v>692</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000089/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J57" t="s">
+        <v>692</v>
+      </c>
+      <c r="K57" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000089/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L57" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" t="s">
+        <v>263</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000090/KA_CML.nml Kv</v>
+      </c>
+      <c r="F58" t="s">
+        <v>692</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000090/KA_CML.nml</v>
+      </c>
+      <c r="H58" t="s">
+        <v>692</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000090/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J58" t="s">
+        <v>692</v>
+      </c>
+      <c r="K58" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000090/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L58" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" t="s">
+        <v>265</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000091/KAHP_CML.nml Kca</v>
+      </c>
+      <c r="F59" t="s">
+        <v>692</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000091/KAHP_CML.nml</v>
+      </c>
+      <c r="H59" t="s">
+        <v>692</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000091/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J59" t="s">
+        <v>692</v>
+      </c>
+      <c r="K59" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000091/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L59" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" t="s">
+        <v>267</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000092/KC_CML.nml Kca</v>
+      </c>
+      <c r="F60" t="s">
+        <v>692</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000092/KC_CML.nml</v>
+      </c>
+      <c r="H60" t="s">
+        <v>692</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000092/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J60" t="s">
+        <v>692</v>
+      </c>
+      <c r="K60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000092/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L60" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C61" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000093/Kslow_CML.nml Kv</v>
+      </c>
+      <c r="F61" t="s">
+        <v>692</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000093/Kslow_CML.nml</v>
+      </c>
+      <c r="H61" t="s">
+        <v>692</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000093/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J61" t="s">
+        <v>692</v>
+      </c>
+      <c r="K61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000093/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L61" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="4"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000094/KV_CML.nml Kv</v>
+      </c>
+      <c r="F62" t="s">
+        <v>692</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000094/KV_CML.nml</v>
+      </c>
+      <c r="H62" t="s">
+        <v>692</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="2"/>
+        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000094/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
+      </c>
+      <c r="J62" t="s">
+        <v>692</v>
+      </c>
+      <c r="K62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000094/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
+      </c>
+      <c r="L62" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H53" t="s">
-        <v>692</v>
-      </c>
-      <c r="I53" s="2" t="str">
+      <c r="F63" t="s">
+        <v>692</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000095/LeakConductance.nml</v>
+      </c>
+      <c r="H63" t="s">
+        <v>692</v>
+      </c>
+      <c r="I63" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J53" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C54" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000086/hcn1f_CML.nml Ih</v>
-      </c>
-      <c r="F54" t="s">
-        <v>692</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000086/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H54" t="s">
-        <v>692</v>
-      </c>
-      <c r="I54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000086/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J54" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C55" t="s">
-        <v>257</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000087/hcn1s_CML.nml Ih</v>
-      </c>
-      <c r="F55" t="s">
-        <v>692</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000087/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H55" t="s">
-        <v>692</v>
-      </c>
-      <c r="I55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000087/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J55" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C56" t="s">
-        <v>259</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000088/hcn2f_CML.nml Ih</v>
-      </c>
-      <c r="F56" t="s">
-        <v>692</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000088/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H56" t="s">
-        <v>692</v>
-      </c>
-      <c r="I56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000088/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J56" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C57" t="s">
-        <v>261</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000089/hcn2s_CML.nml Ih</v>
-      </c>
-      <c r="F57" t="s">
-        <v>692</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000089/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H57" t="s">
-        <v>692</v>
-      </c>
-      <c r="I57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000089/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J57" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C58" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000090/KA_CML.nml Kv</v>
-      </c>
-      <c r="F58" t="s">
-        <v>692</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000090/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H58" t="s">
-        <v>692</v>
-      </c>
-      <c r="I58" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000090/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J58" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000091/KAHP_CML.nml Kca</v>
-      </c>
-      <c r="F59" t="s">
-        <v>692</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000091/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H59" t="s">
-        <v>692</v>
-      </c>
-      <c r="I59" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000091/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J59" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C60" t="s">
-        <v>267</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000092/KC_CML.nml Kca</v>
-      </c>
-      <c r="F60" t="s">
-        <v>692</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000092/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H60" t="s">
-        <v>692</v>
-      </c>
-      <c r="I60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000092/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J60" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
-        <v>144</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C61" t="s">
-        <v>269</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000093/Kslow_CML.nml Kv</v>
-      </c>
-      <c r="F61" t="s">
-        <v>692</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000093/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H61" t="s">
-        <v>692</v>
-      </c>
-      <c r="I61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000093/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J61" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="3"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000094/KV_CML.nml Kv</v>
-      </c>
-      <c r="F62" t="s">
-        <v>692</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="1"/>
-        <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000094/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
-      </c>
-      <c r="H62" t="s">
-        <v>692</v>
-      </c>
-      <c r="I62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000094/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
-      </c>
-      <c r="J62" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>144</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C63" t="s">
-        <v>203</v>
-      </c>
-      <c r="E63" t="str">
+      <c r="J63" t="s">
+        <v>692</v>
+      </c>
+      <c r="K63" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F63" t="s">
-        <v>692</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H63" t="s">
-        <v>692</v>
-      </c>
-      <c r="I63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J63" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="L63" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -5312,7 +6306,7 @@
         <v>69</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000096/NaP_CML.nml Na</v>
       </c>
       <c r="F64" t="s">
@@ -5320,20 +6314,27 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000096/NaP_CML.nml</v>
+      </c>
+      <c r="H64" t="s">
+        <v>692</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000096/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H64" t="s">
-        <v>692</v>
-      </c>
-      <c r="I64" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J64" t="s">
+        <v>692</v>
+      </c>
+      <c r="K64" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000096/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J64" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="L64" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>144</v>
       </c>
@@ -5347,7 +6348,7 @@
         <v>69</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000097/NaR_CML.nml Na</v>
       </c>
       <c r="F65" t="s">
@@ -5355,20 +6356,27 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000097/NaR_CML.nml</v>
+      </c>
+      <c r="H65" t="s">
+        <v>692</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000097/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H65" t="s">
-        <v>692</v>
-      </c>
-      <c r="I65" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J65" t="s">
+        <v>692</v>
+      </c>
+      <c r="K65" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000097/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="L65" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -5382,7 +6390,7 @@
         <v>69</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E97" si="4">IF(D66&lt;&gt;"","python createLEMS.py "&amp;A66&amp;B66&amp;C66&amp;" "&amp;D66,"")</f>
+        <f t="shared" ref="E66:E97" si="5">IF(D66&lt;&gt;"","python createLEMS.py "&amp;A66&amp;B66&amp;C66&amp;" "&amp;D66,"")</f>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000098/NaT_CML.nml Na</v>
       </c>
       <c r="F66" t="s">
@@ -5390,20 +6398,27 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="1"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000098/NaT_CML.nml</v>
+      </c>
+      <c r="H66" t="s">
+        <v>692</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="2"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000098/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H66" t="s">
-        <v>692</v>
-      </c>
-      <c r="I66" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="J66" t="s">
+        <v>692</v>
+      </c>
+      <c r="K66" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000098/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J66" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="L66" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -5417,28 +6432,35 @@
         <v>68</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000099/ka.nml Kv</v>
       </c>
       <c r="F67" t="s">
         <v>692</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G130" si="5">IF(D67&lt;&gt;"","cd "&amp;A67&amp;B67&amp;"; find . -name ""LEMS*"" -exec jnml {} -nogui \;","")</f>
+        <f t="shared" ref="G67:G130" si="6">"jnml -validate "&amp;A67&amp;B67&amp;C67</f>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000099/ka.nml</v>
+      </c>
+      <c r="H67" t="s">
+        <v>692</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I130" si="7">IF(D67&lt;&gt;"","cd "&amp;A67&amp;B67&amp;"; find . -name ""LEMS*"" -exec jnml {} -nogui \;","")</f>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000099/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H67" t="s">
-        <v>692</v>
-      </c>
-      <c r="I67" s="2" t="str">
-        <f t="shared" ref="I67:I130" si="6">IF(D67&lt;&gt;"","find "&amp;A67&amp;B67&amp;" -name ""fileOut*"" -exec python createChartJS.py ""{}"" \;","")</f>
+      <c r="J67" t="s">
+        <v>692</v>
+      </c>
+      <c r="K67" s="2" t="str">
+        <f t="shared" ref="K67:K130" si="8">IF(D67&lt;&gt;"","find "&amp;A67&amp;B67&amp;" -name ""fileOut*"" -exec python createChartJS.py ""{}"" \;","")</f>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000099/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J67" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="L67" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>144</v>
       </c>
@@ -5452,28 +6474,35 @@
         <v>71</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000100/cat_a.nml Cav</v>
       </c>
       <c r="F68" t="s">
         <v>692</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000100/cat_a.nml</v>
+      </c>
+      <c r="H68" t="s">
+        <v>692</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000100/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H68" t="s">
-        <v>692</v>
-      </c>
-      <c r="I68" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J68" t="s">
+        <v>692</v>
+      </c>
+      <c r="K68" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000100/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J68" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="L68" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -5487,28 +6516,35 @@
         <v>71</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000101/Ca.channel.nml Cav</v>
       </c>
       <c r="F69" t="s">
         <v>692</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000101/Ca.channel.nml</v>
+      </c>
+      <c r="H69" t="s">
+        <v>692</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000101/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H69" t="s">
-        <v>692</v>
-      </c>
-      <c r="I69" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J69" t="s">
+        <v>692</v>
+      </c>
+      <c r="K69" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000101/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J69" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="L69" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -5522,28 +6558,35 @@
         <v>71</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000102/Ca_HVA.channel.nml Cav</v>
       </c>
       <c r="F70" t="s">
         <v>692</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000102/Ca_HVA.channel.nml</v>
+      </c>
+      <c r="H70" t="s">
+        <v>692</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000102/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H70" t="s">
-        <v>692</v>
-      </c>
-      <c r="I70" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J70" t="s">
+        <v>692</v>
+      </c>
+      <c r="K70" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000102/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J70" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="L70" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -5557,28 +6600,35 @@
         <v>71</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000103/Ca_LVAst.channel.nml Cav</v>
       </c>
       <c r="F71" t="s">
         <v>692</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000103/Ca_LVAst.channel.nml</v>
+      </c>
+      <c r="H71" t="s">
+        <v>692</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000103/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H71" t="s">
-        <v>692</v>
-      </c>
-      <c r="I71" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J71" t="s">
+        <v>692</v>
+      </c>
+      <c r="K71" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000103/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J71" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="L71" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>144</v>
       </c>
@@ -5592,28 +6642,35 @@
         <v>67</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000104/Ih.channel.nml Ih</v>
       </c>
       <c r="F72" t="s">
         <v>692</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000104/Ih.channel.nml</v>
+      </c>
+      <c r="H72" t="s">
+        <v>692</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000104/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H72" t="s">
-        <v>692</v>
-      </c>
-      <c r="I72" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J72" t="s">
+        <v>692</v>
+      </c>
+      <c r="K72" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000104/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J72" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="L72" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -5627,28 +6684,35 @@
         <v>68</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000105/Im.channel.nml Kv</v>
       </c>
       <c r="F73" t="s">
         <v>692</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000105/Im.channel.nml</v>
+      </c>
+      <c r="H73" t="s">
+        <v>692</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000105/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H73" t="s">
-        <v>692</v>
-      </c>
-      <c r="I73" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J73" t="s">
+        <v>692</v>
+      </c>
+      <c r="K73" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000105/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J73" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="L73" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -5662,28 +6726,35 @@
         <v>68</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000106/KdShu2007.channel.nml Kv</v>
       </c>
       <c r="F74" t="s">
         <v>692</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000106/KdShu2007.channel.nml</v>
+      </c>
+      <c r="H74" t="s">
+        <v>692</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000106/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H74" t="s">
-        <v>692</v>
-      </c>
-      <c r="I74" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J74" t="s">
+        <v>692</v>
+      </c>
+      <c r="K74" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000106/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J74" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="L74" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>144</v>
       </c>
@@ -5697,28 +6768,35 @@
         <v>68</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000107/K_Pst.channel.nml Kv</v>
       </c>
       <c r="F75" t="s">
         <v>692</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000107/K_Pst.channel.nml</v>
+      </c>
+      <c r="H75" t="s">
+        <v>692</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000107/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H75" t="s">
-        <v>692</v>
-      </c>
-      <c r="I75" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J75" t="s">
+        <v>692</v>
+      </c>
+      <c r="K75" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000107/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J75" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="L75" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>144</v>
       </c>
@@ -5732,28 +6810,35 @@
         <v>68</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000108/K_Tst.channel.nml Kv</v>
       </c>
       <c r="F76" t="s">
         <v>692</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000108/K_Tst.channel.nml</v>
+      </c>
+      <c r="H76" t="s">
+        <v>692</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000108/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H76" t="s">
-        <v>692</v>
-      </c>
-      <c r="I76" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J76" t="s">
+        <v>692</v>
+      </c>
+      <c r="K76" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000108/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J76" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="L76" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>144</v>
       </c>
@@ -5767,28 +6852,35 @@
         <v>69</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000109/Nap_Et2.channel.nml Na</v>
       </c>
       <c r="F77" t="s">
         <v>692</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000109/Nap_Et2.channel.nml</v>
+      </c>
+      <c r="H77" t="s">
+        <v>692</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000109/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H77" t="s">
-        <v>692</v>
-      </c>
-      <c r="I77" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J77" t="s">
+        <v>692</v>
+      </c>
+      <c r="K77" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000109/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J77" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="L77" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>144</v>
       </c>
@@ -5802,28 +6894,35 @@
         <v>69</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000110/NaTa_t.channel.nml Na</v>
       </c>
       <c r="F78" t="s">
         <v>692</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000110/NaTa_t.channel.nml</v>
+      </c>
+      <c r="H78" t="s">
+        <v>692</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000110/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H78" t="s">
-        <v>692</v>
-      </c>
-      <c r="I78" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J78" t="s">
+        <v>692</v>
+      </c>
+      <c r="K78" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000110/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J78" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="L78" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>144</v>
       </c>
@@ -5837,28 +6936,35 @@
         <v>69</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000111/NaTs2_t.channel.nml Na</v>
       </c>
       <c r="F79" t="s">
         <v>692</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000111/NaTs2_t.channel.nml</v>
+      </c>
+      <c r="H79" t="s">
+        <v>692</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000111/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H79" t="s">
-        <v>692</v>
-      </c>
-      <c r="I79" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J79" t="s">
+        <v>692</v>
+      </c>
+      <c r="K79" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000111/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J79" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="L79" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -5872,28 +6978,35 @@
         <v>70</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000112/SK_E2.channel.nml Kca</v>
       </c>
       <c r="F80" t="s">
         <v>692</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000112/SK_E2.channel.nml</v>
+      </c>
+      <c r="H80" t="s">
+        <v>692</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000112/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H80" t="s">
-        <v>692</v>
-      </c>
-      <c r="I80" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J80" t="s">
+        <v>692</v>
+      </c>
+      <c r="K80" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000112/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J80" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="L80" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>144</v>
       </c>
@@ -5907,28 +7020,35 @@
         <v>68</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000113/SKv3_1.channel.nml Kv</v>
       </c>
       <c r="F81" t="s">
         <v>692</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000113/SKv3_1.channel.nml</v>
+      </c>
+      <c r="H81" t="s">
+        <v>692</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000113/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H81" t="s">
-        <v>692</v>
-      </c>
-      <c r="I81" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J81" t="s">
+        <v>692</v>
+      </c>
+      <c r="K81" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000113/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J81" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="L81" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -5939,28 +7059,35 @@
         <v>310</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F82" t="s">
-        <v>692</v>
-      </c>
-      <c r="G82" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
+      <c r="F82" t="s">
+        <v>692</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000114/pas.channel.nml</v>
+      </c>
       <c r="H82" t="s">
         <v>692</v>
       </c>
-      <c r="I82" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="I82" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J82" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L82" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>144</v>
       </c>
@@ -5974,28 +7101,35 @@
         <v>68</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000115/StochKv_deterministic.channel.nml Kv</v>
       </c>
       <c r="F83" t="s">
         <v>692</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000115/StochKv_deterministic.channel.nml</v>
+      </c>
+      <c r="H83" t="s">
+        <v>692</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000115/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H83" t="s">
-        <v>692</v>
-      </c>
-      <c r="I83" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J83" t="s">
+        <v>692</v>
+      </c>
+      <c r="K83" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000115/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J83" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="L83" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -6009,28 +7143,35 @@
         <v>68</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000116/K_cp_HHK.channel.nml Kv</v>
       </c>
       <c r="F84" t="s">
         <v>692</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000116/K_cp_HHK.channel.nml</v>
+      </c>
+      <c r="H84" t="s">
+        <v>692</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000116/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H84" t="s">
-        <v>692</v>
-      </c>
-      <c r="I84" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J84" t="s">
+        <v>692</v>
+      </c>
+      <c r="K84" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000116/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J84" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="L84" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>144</v>
       </c>
@@ -6044,28 +7185,35 @@
         <v>69</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000117/Na_HHNa_2.channel.nml Na</v>
       </c>
       <c r="F85" t="s">
         <v>692</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000117/Na_HHNa_2.channel.nml</v>
+      </c>
+      <c r="H85" t="s">
+        <v>692</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000117/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H85" t="s">
-        <v>692</v>
-      </c>
-      <c r="I85" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J85" t="s">
+        <v>692</v>
+      </c>
+      <c r="K85" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000117/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J85" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="L85" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>144</v>
       </c>
@@ -6079,28 +7227,35 @@
         <v>71</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000118/Ca_Generic_Ca_8.channel.nml Cav</v>
       </c>
       <c r="F86" t="s">
         <v>692</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000118/Ca_Generic_Ca_8.channel.nml</v>
+      </c>
+      <c r="H86" t="s">
+        <v>692</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000118/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H86" t="s">
-        <v>692</v>
-      </c>
-      <c r="I86" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J86" t="s">
+        <v>692</v>
+      </c>
+      <c r="K86" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000118/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J86" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="L86" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>144</v>
       </c>
@@ -6114,28 +7269,35 @@
         <v>68</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000119/A_ABasic_13.channel.nml Kv</v>
       </c>
       <c r="F87" t="s">
         <v>692</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000119/A_ABasic_13.channel.nml</v>
+      </c>
+      <c r="H87" t="s">
+        <v>692</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000119/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H87" t="s">
-        <v>692</v>
-      </c>
-      <c r="I87" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J87" t="s">
+        <v>692</v>
+      </c>
+      <c r="K87" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000119/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J87" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="L87" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>144</v>
       </c>
@@ -6149,28 +7311,35 @@
         <v>67</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000120/Ih_channelpedia.channel.nml Ih</v>
       </c>
       <c r="F88" t="s">
         <v>692</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000120/Ih_channelpedia.channel.nml</v>
+      </c>
+      <c r="H88" t="s">
+        <v>692</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000120/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H88" t="s">
-        <v>692</v>
-      </c>
-      <c r="I88" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J88" t="s">
+        <v>692</v>
+      </c>
+      <c r="K88" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000120/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J88" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="L88" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>144</v>
       </c>
@@ -6184,28 +7353,35 @@
         <v>68</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000121/K_KSlow_30.channel.nml Kv</v>
       </c>
       <c r="F89" t="s">
         <v>692</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000121/K_KSlow_30.channel.nml</v>
+      </c>
+      <c r="H89" t="s">
+        <v>692</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000121/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H89" t="s">
-        <v>692</v>
-      </c>
-      <c r="I89" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J89" t="s">
+        <v>692</v>
+      </c>
+      <c r="K89" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000121/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J89" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="L89" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>144</v>
       </c>
@@ -6219,28 +7395,35 @@
         <v>68</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000122/K_KSlow_S_31.channel.nml Kv</v>
       </c>
       <c r="F90" t="s">
         <v>692</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000122/K_KSlow_S_31.channel.nml</v>
+      </c>
+      <c r="H90" t="s">
+        <v>692</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000122/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H90" t="s">
-        <v>692</v>
-      </c>
-      <c r="I90" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J90" t="s">
+        <v>692</v>
+      </c>
+      <c r="K90" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000122/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J90" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="L90" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>144</v>
       </c>
@@ -6254,28 +7437,35 @@
         <v>68</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000123/K_Kfast_32.channel.nml Kv</v>
       </c>
       <c r="F91" t="s">
         <v>692</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000123/K_Kfast_32.channel.nml</v>
+      </c>
+      <c r="H91" t="s">
+        <v>692</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000123/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H91" t="s">
-        <v>692</v>
-      </c>
-      <c r="I91" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J91" t="s">
+        <v>692</v>
+      </c>
+      <c r="K91" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000123/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J91" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="L91" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>144</v>
       </c>
@@ -6289,28 +7479,35 @@
         <v>69</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000124/Na_McCormick_Na_34.channel.nml Na</v>
       </c>
       <c r="F92" t="s">
         <v>692</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000124/Na_McCormick_Na_34.channel.nml</v>
+      </c>
+      <c r="H92" t="s">
+        <v>692</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000124/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H92" t="s">
-        <v>692</v>
-      </c>
-      <c r="I92" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J92" t="s">
+        <v>692</v>
+      </c>
+      <c r="K92" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000124/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J92" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="L92" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>144</v>
       </c>
@@ -6324,28 +7521,35 @@
         <v>69</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000125/Na_Na_35.channel.nml Na</v>
       </c>
       <c r="F93" t="s">
         <v>692</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000125/Na_Na_35.channel.nml</v>
+      </c>
+      <c r="H93" t="s">
+        <v>692</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000125/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H93" t="s">
-        <v>692</v>
-      </c>
-      <c r="I93" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J93" t="s">
+        <v>692</v>
+      </c>
+      <c r="K93" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000125/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J93" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="L93" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>144</v>
       </c>
@@ -6359,28 +7563,35 @@
         <v>69</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000126/Na_Na_S_36.channel.nml Na</v>
       </c>
       <c r="F94" t="s">
         <v>692</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000126/Na_Na_S_36.channel.nml</v>
+      </c>
+      <c r="H94" t="s">
+        <v>692</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000126/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H94" t="s">
-        <v>692</v>
-      </c>
-      <c r="I94" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J94" t="s">
+        <v>692</v>
+      </c>
+      <c r="K94" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000126/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J94" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="L94" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>144</v>
       </c>
@@ -6394,28 +7605,35 @@
         <v>69</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000127/Na_NaP_37.channel.nml Na</v>
       </c>
       <c r="F95" t="s">
         <v>692</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000127/Na_NaP_37.channel.nml</v>
+      </c>
+      <c r="H95" t="s">
+        <v>692</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000127/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H95" t="s">
-        <v>692</v>
-      </c>
-      <c r="I95" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J95" t="s">
+        <v>692</v>
+      </c>
+      <c r="K95" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000127/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J95" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="L95" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>144</v>
       </c>
@@ -6429,28 +7647,35 @@
         <v>68</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000128/IM.channel.nml Kv</v>
       </c>
       <c r="F96" t="s">
         <v>692</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000128/IM.channel.nml</v>
+      </c>
+      <c r="H96" t="s">
+        <v>692</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000128/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H96" t="s">
-        <v>692</v>
-      </c>
-      <c r="I96" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J96" t="s">
+        <v>692</v>
+      </c>
+      <c r="K96" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000128/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J96" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="L96" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -6464,28 +7689,35 @@
         <v>68</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000129/Kd.channel.nml Kv</v>
       </c>
       <c r="F97" t="s">
         <v>692</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000129/Kd.channel.nml</v>
+      </c>
+      <c r="H97" t="s">
+        <v>692</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000129/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H97" t="s">
-        <v>692</v>
-      </c>
-      <c r="I97" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J97" t="s">
+        <v>692</v>
+      </c>
+      <c r="K97" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000129/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J97" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="L97" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -6496,28 +7728,35 @@
         <v>342</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" ref="E98:E129" si="7">IF(D98&lt;&gt;"","python createLEMS.py "&amp;A98&amp;B98&amp;C98&amp;" "&amp;D98,"")</f>
+        <f t="shared" ref="E98:E129" si="9">IF(D98&lt;&gt;"","python createLEMS.py "&amp;A98&amp;B98&amp;C98&amp;" "&amp;D98,"")</f>
         <v/>
       </c>
       <c r="F98" t="s">
         <v>692</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000130/Leak.channel.nml</v>
+      </c>
+      <c r="H98" t="s">
+        <v>692</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H98" t="s">
-        <v>692</v>
-      </c>
-      <c r="I98" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J98" t="s">
+        <v>692</v>
+      </c>
+      <c r="K98" s="2" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J98" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="L98" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>144</v>
       </c>
@@ -6531,28 +7770,35 @@
         <v>69</v>
       </c>
       <c r="E99" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000131/Na.channel.nml Na</v>
+      </c>
+      <c r="F99" t="s">
+        <v>692</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000131/Na.channel.nml</v>
+      </c>
+      <c r="H99" t="s">
+        <v>692</v>
+      </c>
+      <c r="I99" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000131/Na.channel.nml Na</v>
-      </c>
-      <c r="F99" t="s">
-        <v>692</v>
-      </c>
-      <c r="G99" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000131/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H99" t="s">
-        <v>692</v>
-      </c>
-      <c r="I99" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J99" t="s">
+        <v>692</v>
+      </c>
+      <c r="K99" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000131/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J99" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="L99" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>144</v>
       </c>
@@ -6566,28 +7812,35 @@
         <v>71</v>
       </c>
       <c r="E100" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000132/IL.channel.nml Cav</v>
+      </c>
+      <c r="F100" t="s">
+        <v>692</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000132/IL.channel.nml</v>
+      </c>
+      <c r="H100" t="s">
+        <v>692</v>
+      </c>
+      <c r="I100" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000132/IL.channel.nml Cav</v>
-      </c>
-      <c r="F100" t="s">
-        <v>692</v>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000132/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H100" t="s">
-        <v>692</v>
-      </c>
-      <c r="I100" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J100" t="s">
+        <v>692</v>
+      </c>
+      <c r="K100" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000132/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J100" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="L100" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
         <v>144</v>
       </c>
@@ -6601,28 +7854,35 @@
         <v>71</v>
       </c>
       <c r="E101" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000133/IT.channel.nml Cav</v>
+      </c>
+      <c r="F101" t="s">
+        <v>692</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000133/IT.channel.nml</v>
+      </c>
+      <c r="H101" t="s">
+        <v>692</v>
+      </c>
+      <c r="I101" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000133/IT.channel.nml Cav</v>
-      </c>
-      <c r="F101" t="s">
-        <v>692</v>
-      </c>
-      <c r="G101" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000133/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H101" t="s">
-        <v>692</v>
-      </c>
-      <c r="I101" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J101" t="s">
+        <v>692</v>
+      </c>
+      <c r="K101" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000133/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J101" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="L101" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
         <v>144</v>
       </c>
@@ -6636,28 +7896,35 @@
         <v>68</v>
       </c>
       <c r="E102" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000134/kamt.channel.nml Kv</v>
+      </c>
+      <c r="F102" t="s">
+        <v>692</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000134/kamt.channel.nml</v>
+      </c>
+      <c r="H102" t="s">
+        <v>692</v>
+      </c>
+      <c r="I102" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000134/kamt.channel.nml Kv</v>
-      </c>
-      <c r="F102" t="s">
-        <v>692</v>
-      </c>
-      <c r="G102" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000134/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H102" t="s">
-        <v>692</v>
-      </c>
-      <c r="I102" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J102" t="s">
+        <v>692</v>
+      </c>
+      <c r="K102" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000134/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J102" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="L102" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>144</v>
       </c>
@@ -6671,28 +7938,35 @@
         <v>68</v>
       </c>
       <c r="E103" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000135/kdrmt.channel.nml Kv</v>
+      </c>
+      <c r="F103" t="s">
+        <v>692</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000135/kdrmt.channel.nml</v>
+      </c>
+      <c r="H103" t="s">
+        <v>692</v>
+      </c>
+      <c r="I103" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000135/kdrmt.channel.nml Kv</v>
-      </c>
-      <c r="F103" t="s">
-        <v>692</v>
-      </c>
-      <c r="G103" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000135/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H103" t="s">
-        <v>692</v>
-      </c>
-      <c r="I103" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J103" t="s">
+        <v>692</v>
+      </c>
+      <c r="K103" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000135/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J103" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="L103" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>144</v>
       </c>
@@ -6706,28 +7980,35 @@
         <v>69</v>
       </c>
       <c r="E104" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000136/nax__sh0.channel.nml Na</v>
+      </c>
+      <c r="F104" t="s">
+        <v>692</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000136/nax__sh0.channel.nml</v>
+      </c>
+      <c r="H104" t="s">
+        <v>692</v>
+      </c>
+      <c r="I104" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000136/nax__sh0.channel.nml Na</v>
-      </c>
-      <c r="F104" t="s">
-        <v>692</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000136/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H104" t="s">
-        <v>692</v>
-      </c>
-      <c r="I104" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J104" t="s">
+        <v>692</v>
+      </c>
+      <c r="K104" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000136/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J104" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="L104" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -6741,28 +8022,35 @@
         <v>69</v>
       </c>
       <c r="E105" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000137/nax__sh10.channel.nml Na</v>
+      </c>
+      <c r="F105" t="s">
+        <v>692</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000137/nax__sh10.channel.nml</v>
+      </c>
+      <c r="H105" t="s">
+        <v>692</v>
+      </c>
+      <c r="I105" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000137/nax__sh10.channel.nml Na</v>
-      </c>
-      <c r="F105" t="s">
-        <v>692</v>
-      </c>
-      <c r="G105" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000137/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H105" t="s">
-        <v>692</v>
-      </c>
-      <c r="I105" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J105" t="s">
+        <v>692</v>
+      </c>
+      <c r="K105" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000137/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J105" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="L105" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>144</v>
       </c>
@@ -6776,28 +8064,35 @@
         <v>69</v>
       </c>
       <c r="E106" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000138/nax__sh15.channel.nml Na</v>
+      </c>
+      <c r="F106" t="s">
+        <v>692</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000138/nax__sh15.channel.nml</v>
+      </c>
+      <c r="H106" t="s">
+        <v>692</v>
+      </c>
+      <c r="I106" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000138/nax__sh15.channel.nml Na</v>
-      </c>
-      <c r="F106" t="s">
-        <v>692</v>
-      </c>
-      <c r="G106" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000138/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H106" t="s">
-        <v>692</v>
-      </c>
-      <c r="I106" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J106" t="s">
+        <v>692</v>
+      </c>
+      <c r="K106" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000138/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J106" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="L106" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -6808,28 +8103,35 @@
         <v>310</v>
       </c>
       <c r="E107" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F107" t="s">
+        <v>692</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000139/pas.channel.nml</v>
+      </c>
+      <c r="H107" t="s">
+        <v>692</v>
+      </c>
+      <c r="I107" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F107" t="s">
-        <v>692</v>
-      </c>
-      <c r="G107" t="str">
-        <f t="shared" si="5"/>
+      <c r="J107" t="s">
+        <v>692</v>
+      </c>
+      <c r="K107" s="2" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H107" t="s">
-        <v>692</v>
-      </c>
-      <c r="I107" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J107" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="L107" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>144</v>
       </c>
@@ -6843,28 +8145,35 @@
         <v>67</v>
       </c>
       <c r="E108" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000140/ar__m00_25.channel.nml Ih</v>
+      </c>
+      <c r="F108" t="s">
+        <v>692</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000140/ar__m00_25.channel.nml</v>
+      </c>
+      <c r="H108" t="s">
+        <v>692</v>
+      </c>
+      <c r="I108" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000140/ar__m00_25.channel.nml Ih</v>
-      </c>
-      <c r="F108" t="s">
-        <v>692</v>
-      </c>
-      <c r="G108" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000140/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H108" t="s">
-        <v>692</v>
-      </c>
-      <c r="I108" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J108" t="s">
+        <v>692</v>
+      </c>
+      <c r="K108" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000140/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J108" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="L108" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>144</v>
       </c>
@@ -6878,28 +8187,35 @@
         <v>67</v>
       </c>
       <c r="E109" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000141/ar__m00.channel.nml Ih</v>
+      </c>
+      <c r="F109" t="s">
+        <v>692</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000141/ar__m00.channel.nml</v>
+      </c>
+      <c r="H109" t="s">
+        <v>692</v>
+      </c>
+      <c r="I109" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000141/ar__m00.channel.nml Ih</v>
-      </c>
-      <c r="F109" t="s">
-        <v>692</v>
-      </c>
-      <c r="G109" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000141/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H109" t="s">
-        <v>692</v>
-      </c>
-      <c r="I109" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J109" t="s">
+        <v>692</v>
+      </c>
+      <c r="K109" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000141/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J109" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="L109" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>144</v>
       </c>
@@ -6913,28 +8229,35 @@
         <v>67</v>
       </c>
       <c r="E110" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000142/ar.channel.nml Ih</v>
+      </c>
+      <c r="F110" t="s">
+        <v>692</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000142/ar.channel.nml</v>
+      </c>
+      <c r="H110" t="s">
+        <v>692</v>
+      </c>
+      <c r="I110" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000142/ar.channel.nml Ih</v>
-      </c>
-      <c r="F110" t="s">
-        <v>692</v>
-      </c>
-      <c r="G110" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000142/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H110" t="s">
-        <v>692</v>
-      </c>
-      <c r="I110" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J110" t="s">
+        <v>692</v>
+      </c>
+      <c r="K110" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000142/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J110" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="L110" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -6948,28 +8271,35 @@
         <v>71</v>
       </c>
       <c r="E111" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000143/cal.channel.nml Cav</v>
+      </c>
+      <c r="F111" t="s">
+        <v>692</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000143/cal.channel.nml</v>
+      </c>
+      <c r="H111" t="s">
+        <v>692</v>
+      </c>
+      <c r="I111" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000143/cal.channel.nml Cav</v>
-      </c>
-      <c r="F111" t="s">
-        <v>692</v>
-      </c>
-      <c r="G111" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000143/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H111" t="s">
-        <v>692</v>
-      </c>
-      <c r="I111" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J111" t="s">
+        <v>692</v>
+      </c>
+      <c r="K111" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000143/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J111" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="L111" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>144</v>
       </c>
@@ -6983,28 +8313,35 @@
         <v>71</v>
       </c>
       <c r="E112" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000144/cat_a.channel.nml Cav</v>
+      </c>
+      <c r="F112" t="s">
+        <v>692</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000144/cat_a.channel.nml</v>
+      </c>
+      <c r="H112" t="s">
+        <v>692</v>
+      </c>
+      <c r="I112" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000144/cat_a.channel.nml Cav</v>
-      </c>
-      <c r="F112" t="s">
-        <v>692</v>
-      </c>
-      <c r="G112" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000144/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H112" t="s">
-        <v>692</v>
-      </c>
-      <c r="I112" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J112" t="s">
+        <v>692</v>
+      </c>
+      <c r="K112" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000144/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J112" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="L112" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>144</v>
       </c>
@@ -7018,28 +8355,35 @@
         <v>71</v>
       </c>
       <c r="E113" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000145/cat.channel.nml Cav</v>
+      </c>
+      <c r="F113" t="s">
+        <v>692</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000145/cat.channel.nml</v>
+      </c>
+      <c r="H113" t="s">
+        <v>692</v>
+      </c>
+      <c r="I113" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000145/cat.channel.nml Cav</v>
-      </c>
-      <c r="F113" t="s">
-        <v>692</v>
-      </c>
-      <c r="G113" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000145/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H113" t="s">
-        <v>692</v>
-      </c>
-      <c r="I113" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J113" t="s">
+        <v>692</v>
+      </c>
+      <c r="K113" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000145/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J113" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="L113" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>144</v>
       </c>
@@ -7053,28 +8397,35 @@
         <v>68</v>
       </c>
       <c r="E114" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000146/k2.channel.nml Kv</v>
+      </c>
+      <c r="F114" t="s">
+        <v>692</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000146/k2.channel.nml</v>
+      </c>
+      <c r="H114" t="s">
+        <v>692</v>
+      </c>
+      <c r="I114" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000146/k2.channel.nml Kv</v>
-      </c>
-      <c r="F114" t="s">
-        <v>692</v>
-      </c>
-      <c r="G114" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000146/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H114" t="s">
-        <v>692</v>
-      </c>
-      <c r="I114" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J114" t="s">
+        <v>692</v>
+      </c>
+      <c r="K114" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000146/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J114" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="L114" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>144</v>
       </c>
@@ -7088,28 +8439,35 @@
         <v>68</v>
       </c>
       <c r="E115" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000147/ka_ib.channel.nml Kv</v>
+      </c>
+      <c r="F115" t="s">
+        <v>692</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000147/ka_ib.channel.nml</v>
+      </c>
+      <c r="H115" t="s">
+        <v>692</v>
+      </c>
+      <c r="I115" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000147/ka_ib.channel.nml Kv</v>
-      </c>
-      <c r="F115" t="s">
-        <v>692</v>
-      </c>
-      <c r="G115" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000147/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H115" t="s">
-        <v>692</v>
-      </c>
-      <c r="I115" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J115" t="s">
+        <v>692</v>
+      </c>
+      <c r="K115" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000147/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J115" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="L115" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
         <v>144</v>
       </c>
@@ -7123,28 +8481,35 @@
         <v>68</v>
       </c>
       <c r="E116" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000148/ka.channel.nml Kv</v>
+      </c>
+      <c r="F116" t="s">
+        <v>692</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000148/ka.channel.nml</v>
+      </c>
+      <c r="H116" t="s">
+        <v>692</v>
+      </c>
+      <c r="I116" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000148/ka.channel.nml Kv</v>
-      </c>
-      <c r="F116" t="s">
-        <v>692</v>
-      </c>
-      <c r="G116" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000148/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H116" t="s">
-        <v>692</v>
-      </c>
-      <c r="I116" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J116" t="s">
+        <v>692</v>
+      </c>
+      <c r="K116" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000148/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J116" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="L116" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>144</v>
       </c>
@@ -7158,28 +8523,35 @@
         <v>68</v>
       </c>
       <c r="E117" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000149/kahp_deeppyr.channel.nml Kv</v>
+      </c>
+      <c r="F117" t="s">
+        <v>692</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000149/kahp_deeppyr.channel.nml</v>
+      </c>
+      <c r="H117" t="s">
+        <v>692</v>
+      </c>
+      <c r="I117" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000149/kahp_deeppyr.channel.nml Kv</v>
-      </c>
-      <c r="F117" t="s">
-        <v>692</v>
-      </c>
-      <c r="G117" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000149/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H117" t="s">
-        <v>692</v>
-      </c>
-      <c r="I117" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J117" t="s">
+        <v>692</v>
+      </c>
+      <c r="K117" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000149/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J117" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="L117" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
         <v>144</v>
       </c>
@@ -7193,28 +8565,35 @@
         <v>68</v>
       </c>
       <c r="E118" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000150/kahp_slower.channel.nml Kv</v>
+      </c>
+      <c r="F118" t="s">
+        <v>692</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000150/kahp_slower.channel.nml</v>
+      </c>
+      <c r="H118" t="s">
+        <v>692</v>
+      </c>
+      <c r="I118" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000150/kahp_slower.channel.nml Kv</v>
-      </c>
-      <c r="F118" t="s">
-        <v>692</v>
-      </c>
-      <c r="G118" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000150/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H118" t="s">
-        <v>692</v>
-      </c>
-      <c r="I118" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J118" t="s">
+        <v>692</v>
+      </c>
+      <c r="K118" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000150/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J118" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="L118" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
         <v>144</v>
       </c>
@@ -7228,28 +8607,35 @@
         <v>68</v>
       </c>
       <c r="E119" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000151/kahp.channel.nml Kv</v>
+      </c>
+      <c r="F119" t="s">
+        <v>692</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000151/kahp.channel.nml</v>
+      </c>
+      <c r="H119" t="s">
+        <v>692</v>
+      </c>
+      <c r="I119" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000151/kahp.channel.nml Kv</v>
-      </c>
-      <c r="F119" t="s">
-        <v>692</v>
-      </c>
-      <c r="G119" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000151/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H119" t="s">
-        <v>692</v>
-      </c>
-      <c r="I119" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J119" t="s">
+        <v>692</v>
+      </c>
+      <c r="K119" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000151/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J119" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="L119" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>144</v>
       </c>
@@ -7263,28 +8649,35 @@
         <v>68</v>
       </c>
       <c r="E120" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000152/kc_fast.channel.nml Kv</v>
+      </c>
+      <c r="F120" t="s">
+        <v>692</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000152/kc_fast.channel.nml</v>
+      </c>
+      <c r="H120" t="s">
+        <v>692</v>
+      </c>
+      <c r="I120" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000152/kc_fast.channel.nml Kv</v>
-      </c>
-      <c r="F120" t="s">
-        <v>692</v>
-      </c>
-      <c r="G120" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000152/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H120" t="s">
-        <v>692</v>
-      </c>
-      <c r="I120" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J120" t="s">
+        <v>692</v>
+      </c>
+      <c r="K120" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000152/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J120" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="L120" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
         <v>144</v>
       </c>
@@ -7298,28 +8691,35 @@
         <v>68</v>
       </c>
       <c r="E121" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000153/kc.channel.nml Kv</v>
+      </c>
+      <c r="F121" t="s">
+        <v>692</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000153/kc.channel.nml</v>
+      </c>
+      <c r="H121" t="s">
+        <v>692</v>
+      </c>
+      <c r="I121" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000153/kc.channel.nml Kv</v>
-      </c>
-      <c r="F121" t="s">
-        <v>692</v>
-      </c>
-      <c r="G121" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000153/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H121" t="s">
-        <v>692</v>
-      </c>
-      <c r="I121" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J121" t="s">
+        <v>692</v>
+      </c>
+      <c r="K121" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000153/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J121" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="L121" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>144</v>
       </c>
@@ -7333,28 +8733,35 @@
         <v>68</v>
       </c>
       <c r="E122" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000154/kdr_fs.channel.nml Kv</v>
+      </c>
+      <c r="F122" t="s">
+        <v>692</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000154/kdr_fs.channel.nml</v>
+      </c>
+      <c r="H122" t="s">
+        <v>692</v>
+      </c>
+      <c r="I122" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000154/kdr_fs.channel.nml Kv</v>
-      </c>
-      <c r="F122" t="s">
-        <v>692</v>
-      </c>
-      <c r="G122" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000154/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H122" t="s">
-        <v>692</v>
-      </c>
-      <c r="I122" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J122" t="s">
+        <v>692</v>
+      </c>
+      <c r="K122" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000154/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J122" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="L122" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
         <v>144</v>
       </c>
@@ -7368,28 +8775,35 @@
         <v>68</v>
       </c>
       <c r="E123" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000155/kdr.channel.nml Kv</v>
+      </c>
+      <c r="F123" t="s">
+        <v>692</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000155/kdr.channel.nml</v>
+      </c>
+      <c r="H123" t="s">
+        <v>692</v>
+      </c>
+      <c r="I123" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000155/kdr.channel.nml Kv</v>
-      </c>
-      <c r="F123" t="s">
-        <v>692</v>
-      </c>
-      <c r="G123" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000155/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H123" t="s">
-        <v>692</v>
-      </c>
-      <c r="I123" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J123" t="s">
+        <v>692</v>
+      </c>
+      <c r="K123" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000155/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J123" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="L123" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
         <v>144</v>
       </c>
@@ -7403,28 +8817,35 @@
         <v>68</v>
       </c>
       <c r="E124" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000156/km.channel.nml Kv</v>
+      </c>
+      <c r="F124" t="s">
+        <v>692</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000156/km.channel.nml</v>
+      </c>
+      <c r="H124" t="s">
+        <v>692</v>
+      </c>
+      <c r="I124" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000156/km.channel.nml Kv</v>
-      </c>
-      <c r="F124" t="s">
-        <v>692</v>
-      </c>
-      <c r="G124" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000156/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H124" t="s">
-        <v>692</v>
-      </c>
-      <c r="I124" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J124" t="s">
+        <v>692</v>
+      </c>
+      <c r="K124" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000156/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J124" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="L124" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -7438,28 +8859,35 @@
         <v>69</v>
       </c>
       <c r="E125" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000157/naf__a0__b0__c0__d0__fastNa_shiftmin3_5.channel.nml Na</v>
+      </c>
+      <c r="F125" t="s">
+        <v>692</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000157/naf__a0__b0__c0__d0__fastNa_shiftmin3_5.channel.nml</v>
+      </c>
+      <c r="H125" t="s">
+        <v>692</v>
+      </c>
+      <c r="I125" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000157/naf__a0__b0__c0__d0__fastNa_shiftmin3_5.channel.nml Na</v>
-      </c>
-      <c r="F125" t="s">
-        <v>692</v>
-      </c>
-      <c r="G125" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000157/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H125" t="s">
-        <v>692</v>
-      </c>
-      <c r="I125" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J125" t="s">
+        <v>692</v>
+      </c>
+      <c r="K125" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000157/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J125" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="L125" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>144</v>
       </c>
@@ -7473,28 +8901,35 @@
         <v>69</v>
       </c>
       <c r="E126" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000158/naf_tcr__sh_hmin7__sh_m_imin3__sh_m_rmin2_5.channel.nml Na</v>
+      </c>
+      <c r="F126" t="s">
+        <v>692</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000158/naf_tcr__sh_hmin7__sh_m_imin3__sh_m_rmin2_5.channel.nml</v>
+      </c>
+      <c r="H126" t="s">
+        <v>692</v>
+      </c>
+      <c r="I126" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000158/naf_tcr__sh_hmin7__sh_m_imin3__sh_m_rmin2_5.channel.nml Na</v>
-      </c>
-      <c r="F126" t="s">
-        <v>692</v>
-      </c>
-      <c r="G126" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000158/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H126" t="s">
-        <v>692</v>
-      </c>
-      <c r="I126" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J126" t="s">
+        <v>692</v>
+      </c>
+      <c r="K126" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000158/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J126" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="L126" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>144</v>
       </c>
@@ -7508,28 +8943,35 @@
         <v>69</v>
       </c>
       <c r="E127" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000159/naf_tcr.channel.nml Na</v>
+      </c>
+      <c r="F127" t="s">
+        <v>692</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000159/naf_tcr.channel.nml</v>
+      </c>
+      <c r="H127" t="s">
+        <v>692</v>
+      </c>
+      <c r="I127" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000159/naf_tcr.channel.nml Na</v>
-      </c>
-      <c r="F127" t="s">
-        <v>692</v>
-      </c>
-      <c r="G127" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000159/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H127" t="s">
-        <v>692</v>
-      </c>
-      <c r="I127" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J127" t="s">
+        <v>692</v>
+      </c>
+      <c r="K127" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000159/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J127" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="L127" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -7543,28 +8985,35 @@
         <v>69</v>
       </c>
       <c r="E128" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000160/naf.channel.nml Na</v>
+      </c>
+      <c r="F128" t="s">
+        <v>692</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000160/naf.channel.nml</v>
+      </c>
+      <c r="H128" t="s">
+        <v>692</v>
+      </c>
+      <c r="I128" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000160/naf.channel.nml Na</v>
-      </c>
-      <c r="F128" t="s">
-        <v>692</v>
-      </c>
-      <c r="G128" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000160/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H128" t="s">
-        <v>692</v>
-      </c>
-      <c r="I128" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J128" t="s">
+        <v>692</v>
+      </c>
+      <c r="K128" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000160/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J128" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="L128" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -7578,28 +9027,35 @@
         <v>69</v>
       </c>
       <c r="E129" t="str">
+        <f t="shared" si="9"/>
+        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000161/naf2__a0__b0__c0__d0__fastNa_shift0.channel.nml Na</v>
+      </c>
+      <c r="F129" t="s">
+        <v>692</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000161/naf2__a0__b0__c0__d0__fastNa_shift0.channel.nml</v>
+      </c>
+      <c r="H129" t="s">
+        <v>692</v>
+      </c>
+      <c r="I129" t="str">
         <f t="shared" si="7"/>
-        <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000161/naf2__a0__b0__c0__d0__fastNa_shift0.channel.nml Na</v>
-      </c>
-      <c r="F129" t="s">
-        <v>692</v>
-      </c>
-      <c r="G129" t="str">
-        <f t="shared" si="5"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000161/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H129" t="s">
-        <v>692</v>
-      </c>
-      <c r="I129" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J129" t="s">
+        <v>692</v>
+      </c>
+      <c r="K129" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000161/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J129" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="L129" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -7613,28 +9069,35 @@
         <v>69</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E139" si="8">IF(D130&lt;&gt;"","python createLEMS.py "&amp;A130&amp;B130&amp;C130&amp;" "&amp;D130,"")</f>
+        <f t="shared" ref="E130:E139" si="10">IF(D130&lt;&gt;"","python createLEMS.py "&amp;A130&amp;B130&amp;C130&amp;" "&amp;D130,"")</f>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000162/naf2__a0__b0__c0__d0__fastNa_shiftmin2_5.channel.nml Na</v>
       </c>
       <c r="F130" t="s">
         <v>692</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000162/naf2__a0__b0__c0__d0__fastNa_shiftmin2_5.channel.nml</v>
+      </c>
+      <c r="H130" t="s">
+        <v>692</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="7"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000162/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H130" t="s">
-        <v>692</v>
-      </c>
-      <c r="I130" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="J130" t="s">
+        <v>692</v>
+      </c>
+      <c r="K130" s="2" t="str">
+        <f t="shared" si="8"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000162/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J130" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="L130" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -7648,28 +9111,35 @@
         <v>69</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000163/naf2.channel.nml Na</v>
       </c>
       <c r="F131" t="s">
         <v>692</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G139" si="9">IF(D131&lt;&gt;"","cd "&amp;A131&amp;B131&amp;"; find . -name ""LEMS*"" -exec jnml {} -nogui \;","")</f>
+        <f t="shared" ref="G131:G139" si="11">"jnml -validate "&amp;A131&amp;B131&amp;C131</f>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000163/naf2.channel.nml</v>
+      </c>
+      <c r="H131" t="s">
+        <v>692</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" ref="I131:I139" si="12">IF(D131&lt;&gt;"","cd "&amp;A131&amp;B131&amp;"; find . -name ""LEMS*"" -exec jnml {} -nogui \;","")</f>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000163/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H131" t="s">
-        <v>692</v>
-      </c>
-      <c r="I131" s="2" t="str">
-        <f t="shared" ref="I131:I139" si="10">IF(D131&lt;&gt;"","find "&amp;A131&amp;B131&amp;" -name ""fileOut*"" -exec python createChartJS.py ""{}"" \;","")</f>
+      <c r="J131" t="s">
+        <v>692</v>
+      </c>
+      <c r="K131" s="2" t="str">
+        <f t="shared" ref="K131:K139" si="13">IF(D131&lt;&gt;"","find "&amp;A131&amp;B131&amp;" -name ""fileOut*"" -exec python createChartJS.py ""{}"" \;","")</f>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000163/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J131" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="L131" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -7683,28 +9153,35 @@
         <v>69</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000164/nap.channel.nml Na</v>
       </c>
       <c r="F132" t="s">
         <v>692</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000164/nap.channel.nml</v>
+      </c>
+      <c r="H132" t="s">
+        <v>692</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="12"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000164/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H132" t="s">
-        <v>692</v>
-      </c>
-      <c r="I132" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="J132" t="s">
+        <v>692</v>
+      </c>
+      <c r="K132" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000164/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J132" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="L132" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -7718,28 +9195,35 @@
         <v>69</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000165/napf__a0__b0__c0__d0__fastNa_shift0.channel.nml Na</v>
       </c>
       <c r="F133" t="s">
         <v>692</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000165/napf__a0__b0__c0__d0__fastNa_shift0.channel.nml</v>
+      </c>
+      <c r="H133" t="s">
+        <v>692</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="12"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000165/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H133" t="s">
-        <v>692</v>
-      </c>
-      <c r="I133" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="J133" t="s">
+        <v>692</v>
+      </c>
+      <c r="K133" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000165/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J133" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="L133" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -7753,28 +9237,35 @@
         <v>69</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000166/napf_spinstell__a0__b0__c0__d0__fastNa_shiftmin2_5.channel.nml Na</v>
       </c>
       <c r="F134" t="s">
         <v>692</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000166/napf_spinstell__a0__b0__c0__d0__fastNa_shiftmin2_5.channel.nml</v>
+      </c>
+      <c r="H134" t="s">
+        <v>692</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="12"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000166/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H134" t="s">
-        <v>692</v>
-      </c>
-      <c r="I134" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="J134" t="s">
+        <v>692</v>
+      </c>
+      <c r="K134" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000166/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J134" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="L134" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -7788,28 +9279,35 @@
         <v>69</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000167/napf_spinstell__a0__b0__c0__d0__shmin2_5.channel.nml Na</v>
       </c>
       <c r="F135" t="s">
         <v>692</v>
       </c>
       <c r="G135" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000167/napf_spinstell__a0__b0__c0__d0__shmin2_5.channel.nml</v>
+      </c>
+      <c r="H135" t="s">
+        <v>692</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="12"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000167/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H135" t="s">
-        <v>692</v>
-      </c>
-      <c r="I135" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="J135" t="s">
+        <v>692</v>
+      </c>
+      <c r="K135" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000167/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J135" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="L135" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -7823,28 +9321,35 @@
         <v>69</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000168/napf_spinstell.channel.nml Na</v>
       </c>
       <c r="F136" t="s">
         <v>692</v>
       </c>
       <c r="G136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000168/napf_spinstell.channel.nml</v>
+      </c>
+      <c r="H136" t="s">
+        <v>692</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="12"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000168/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H136" t="s">
-        <v>692</v>
-      </c>
-      <c r="I136" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="J136" t="s">
+        <v>692</v>
+      </c>
+      <c r="K136" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000168/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J136" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="L136" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -7858,28 +9363,35 @@
         <v>69</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000169/napf_tcr__a0__b0__c0__d0__fastNa_shift7.channel.nml Na</v>
       </c>
       <c r="F137" t="s">
         <v>692</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000169/napf_tcr__a0__b0__c0__d0__fastNa_shift7.channel.nml</v>
+      </c>
+      <c r="H137" t="s">
+        <v>692</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="12"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000169/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H137" t="s">
-        <v>692</v>
-      </c>
-      <c r="I137" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="J137" t="s">
+        <v>692</v>
+      </c>
+      <c r="K137" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000169/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J137" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="L137" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -7893,28 +9405,35 @@
         <v>69</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000170/napf_tcr.channel.nml Na</v>
       </c>
       <c r="F138" t="s">
         <v>692</v>
       </c>
       <c r="G138" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000170/napf_tcr.channel.nml</v>
+      </c>
+      <c r="H138" t="s">
+        <v>692</v>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" si="12"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000170/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H138" t="s">
-        <v>692</v>
-      </c>
-      <c r="I138" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="J138" t="s">
+        <v>692</v>
+      </c>
+      <c r="K138" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000170/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J138" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="L138" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>144</v>
       </c>
@@ -7928,28 +9447,35 @@
         <v>69</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>python createLEMS.py /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000171/napf.channel.nml Na</v>
       </c>
       <c r="F139" t="s">
         <v>692</v>
       </c>
       <c r="G139" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
+        <v>jnml -validate /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000171/napf.channel.nml</v>
+      </c>
+      <c r="H139" t="s">
+        <v>692</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="12"/>
         <v>cd /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000171/; find . -name "LEMS*" -exec jnml {} -nogui \;</v>
       </c>
-      <c r="H139" t="s">
-        <v>692</v>
-      </c>
-      <c r="I139" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="J139" t="s">
+        <v>692</v>
+      </c>
+      <c r="K139" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>find /Users/gazelle/Documents/Dropbox/Research/NeuroML/neuroml-db/www/NeuroMLmodels/NMLCH000171/ -name "fileOut*" -exec python createChartJS.py "{}" \;</v>
       </c>
-      <c r="J139" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="L139" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -7960,7 +9486,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:12">
       <c r="C141" t="str">
         <f>IF(B141&lt;&gt;"","python createLEMS.py "&amp;A140&amp;#REF!&amp;" "&amp;B141,"")</f>
         <v/>
@@ -12303,7 +13829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
@@ -12358,4 +13884,266 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="47" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" ht="37" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" ht="41" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+    </row>
+  </sheetData>
+  <sortState ref="A20:B45">
+    <sortCondition ref="A20"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="C2:G6"/>
+    <mergeCell ref="C7:G10"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C12:G13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Import Scripts/voltageClamp/channelModelManager.xlsx
+++ b/Import Scripts/voltageClamp/channelModelManager.xlsx
@@ -14,7 +14,7 @@
     <sheet name="problemChannels" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">problemChannels!$A$1:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">problemChannels!$A$1:$C$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$F$141</definedName>
   </definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="735">
   <si>
     <t>/www/NeuroMLmodels/NMLCH000001/hd.nml</t>
   </si>
@@ -2163,61 +2163,76 @@
     <t>NMLCH000035/CaT_Chan.nml</t>
   </si>
   <si>
-    <t>NMLCH000036/CaPool.nml</t>
-  </si>
-  <si>
     <t>NMLCH000037/CaP_Chan.nml</t>
   </si>
   <si>
-    <t>NMLCH000051/cad.nml</t>
-  </si>
-  <si>
-    <t>NMLCH000133/IT.channel.nml</t>
-  </si>
-  <si>
-    <t>NMLCH000152/kc_fast.channel.nml</t>
-  </si>
-  <si>
-    <t>NMLCH000153/kc.channel.nml</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
     <t>Problem</t>
   </si>
   <si>
-    <t>DeShutter&amp;Bower channels that were in NMLv1.8 format. PG's NMLv1.8-&gt;NML2 converter does not support the format used in the NMLv1.8 files. Conversion results in .nml files that say "Not implemented yet"</t>
-  </si>
-  <si>
     <t>Can't convert from NMLv1.8 to v2</t>
   </si>
   <si>
-    <t>Does not validate, but seems to run OK</t>
-  </si>
-  <si>
-    <t>Traub TMC model. Tag "baseConductanceScalingCaDependent" used in channel does not appear to be part of NML2</t>
-  </si>
-  <si>
-    <t>Covered by existing issue from 1yr ago: https://github.com/OpenSourceBrain/Thalamocortical/issues/7</t>
-  </si>
-  <si>
-    <t>Does not validate, shows I&amp;G =0</t>
-  </si>
-  <si>
-    <t>Ca pool model</t>
-  </si>
-  <si>
     <t>Details</t>
   </si>
   <si>
     <t>Example of NMLv1.8 version file that the converter does not support: https://github.com/scrook/neuroml-db/blob/e4f088fdcd3ddeb7b99fbeeff70cc5e40681e3b1/www/NeuroMLmodels/NMLCH000025/NaP_Chan.xml</t>
   </si>
   <si>
-    <t>Created an issue: https://github.com/OpenSourceBrain/PurkinjeCell/issues/2</t>
-  </si>
-  <si>
-    <t>Pospischil model. Validator complains about 'IT_s_gate' type that is defined later in the channel. Have to investigate why it works OK as part of a cell, but not in our test protocol.</t>
+    <t>NMLCH000009</t>
+  </si>
+  <si>
+    <t>NMLCH000022</t>
+  </si>
+  <si>
+    <t>NMLCH000097</t>
+  </si>
+  <si>
+    <t>NMLCH000098</t>
+  </si>
+  <si>
+    <t>NMLCH000105</t>
+  </si>
+  <si>
+    <t>NMLCH000116</t>
+  </si>
+  <si>
+    <t>NMLCH000117</t>
+  </si>
+  <si>
+    <t>NMLCH000126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infinite values integration problems </t>
+  </si>
+  <si>
+    <t>DeSchutter&amp;Bower channels that were in NMLv1.8 format. PG's NMLv1.8-&gt;NML2 converter does not support the format used in the NMLv1.8 files. Conversion results in .nml files that say "Not implemented yet"</t>
+  </si>
+  <si>
+    <t>Inactivation integration probs</t>
+  </si>
+  <si>
+    <t>Numerical instabilities</t>
+  </si>
+  <si>
+    <t>Inactivation and deactivation probs</t>
+  </si>
+  <si>
+    <t>Converted to NEURON</t>
+  </si>
+  <si>
+    <t>Leaving these as is -- other channels work fine with the protocol</t>
+  </si>
+  <si>
+    <t>Indicates that problem is with channels</t>
+  </si>
+  <si>
+    <t>Created an issue. No response as of 6/2/17 https://github.com/OpenSourceBrain/PurkinjeCell/issues/2</t>
+  </si>
+  <si>
+    <t>Still various problems with channels, despite NEURON &amp; small dt</t>
   </si>
 </sst>
 </file>
@@ -2265,7 +2280,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2322,32 +2337,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2379,19 +2368,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="435">
+  <cellStyleXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2827,8 +2805,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2844,40 +2830,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2886,34 +2883,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="435">
+  <cellStyles count="443">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3131,6 +3108,10 @@
     <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3348,6 +3329,10 @@
     <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3679,7 +3664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView topLeftCell="I42" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
@@ -13827,10 +13812,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="A12" sqref="A12:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13873,6 +13858,46 @@
     <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -13888,10 +13913,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13902,13 +13927,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C1" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -13916,227 +13941,240 @@
         <v>701</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>719</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+        <v>714</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="21"/>
+      <c r="B7" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="21"/>
+      <c r="B8" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="21"/>
+      <c r="B9" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>728</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
+      <c r="C13" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="B14" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="47" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>729</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" ht="37" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" ht="41" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>721</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>723</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
   </sheetData>
   <sortState ref="A20:B45">
     <sortCondition ref="A20"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="C2:G6"/>
     <mergeCell ref="C7:G10"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C12:G13"/>
+    <mergeCell ref="C11:G12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
